--- a/analysis/analysis I/results/logit_univariate.xlsx
+++ b/analysis/analysis I/results/logit_univariate.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H120"/>
+  <dimension ref="A1:H110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.6881148563632419</v>
+        <v>0.7095079145242614</v>
       </c>
       <c r="D2" t="n">
-        <v>2.147781233999078e-05</v>
+        <v>6.292055838457725e-06</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1784336954171289</v>
+        <v>0.1793992108422684</v>
       </c>
       <c r="F2" t="n">
-        <v>0.104553499561567</v>
+        <v>0.1112967236708502</v>
       </c>
       <c r="G2" t="n">
-        <v>1.163257957290614e-05</v>
+        <v>3.164802334017482e-06</v>
       </c>
       <c r="H2" t="n">
-        <v>369.5283922062707</v>
+        <v>383.0381044281133</v>
       </c>
     </row>
     <row r="3">
@@ -534,22 +534,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.8034350278201243</v>
+        <v>0.8186503175485921</v>
       </c>
       <c r="D3" t="n">
-        <v>1.284808918821569e-06</v>
+        <v>3.457812103381661e-07</v>
       </c>
       <c r="E3" t="n">
-        <v>0.206479268069542</v>
+        <v>0.2051503968927173</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1373185053804092</v>
+        <v>0.1429020433687481</v>
       </c>
       <c r="G3" t="n">
-        <v>4.358579132714143e-07</v>
+        <v>1.071749545305577e-07</v>
       </c>
       <c r="H3" t="n">
-        <v>366.0771427210054</v>
+        <v>379.450919889683</v>
       </c>
     </row>
     <row r="4">
@@ -560,22 +560,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.129838858650901</v>
+        <v>1.133899977349257</v>
       </c>
       <c r="D4" t="n">
-        <v>2.72106201063704e-11</v>
+        <v>4.250041874188128e-12</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3073914692600383</v>
+        <v>0.3005510453660865</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2394177153225884</v>
+        <v>0.2423441683168001</v>
       </c>
       <c r="G4" t="n">
-        <v>8.042917678960613e-13</v>
+        <v>1.074154437278046e-13</v>
       </c>
       <c r="H4" t="n">
-        <v>384.0419661031351</v>
+        <v>397.7598310027585</v>
       </c>
     </row>
     <row r="5">
@@ -586,22 +586,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.8502931340346096</v>
+        <v>0.8733443714550515</v>
       </c>
       <c r="D5" t="n">
-        <v>3.596529178898096e-08</v>
+        <v>5.710238895468949e-09</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2503703607010629</v>
+        <v>0.2502123487686613</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1513087758244529</v>
+        <v>0.1594874034913701</v>
       </c>
       <c r="G5" t="n">
-        <v>1.128737260955507e-08</v>
+        <v>1.548265326372906e-09</v>
       </c>
       <c r="H5" t="n">
-        <v>413.9388244306499</v>
+        <v>428.2652613335143</v>
       </c>
     </row>
     <row r="6">
@@ -612,22 +612,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9604681649888703</v>
+        <v>0.9747568967919295</v>
       </c>
       <c r="D6" t="n">
-        <v>2.987008939158349e-09</v>
+        <v>5.126680056935586e-10</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2682233455522765</v>
+        <v>0.2650161610668628</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1853227025792379</v>
+        <v>0.1911846883764215</v>
       </c>
       <c r="G6" t="n">
-        <v>4.401894974008894e-10</v>
+        <v>6.46784114260014e-11</v>
       </c>
       <c r="H6" t="n">
-        <v>394.0565683953127</v>
+        <v>407.8802148639765</v>
       </c>
     </row>
     <row r="7">
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.308025010135226</v>
+        <v>1.175921495267463</v>
       </c>
       <c r="D7" t="n">
-        <v>5.555174812335325e-06</v>
+        <v>2.539754316486858e-06</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2046247287744729</v>
+        <v>0.1810436488965621</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2967154854820495</v>
+        <v>0.2559564702958816</v>
       </c>
       <c r="G7" t="n">
-        <v>1.131271473631298e-08</v>
+        <v>2.394613850630735e-08</v>
       </c>
       <c r="H7" t="n">
-        <v>231.8089088718696</v>
+        <v>242.823197220225</v>
       </c>
     </row>
     <row r="8">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.7752745959400652</v>
+        <v>0.8417359995194187</v>
       </c>
       <c r="D8" t="n">
-        <v>5.559593761513361e-07</v>
+        <v>2.966099952469637e-08</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2234812375019413</v>
+        <v>0.2344521600105662</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1290819350676642</v>
+        <v>0.1498505059736856</v>
       </c>
       <c r="G8" t="n">
-        <v>2.368759321479107e-07</v>
+        <v>9.121205406168736e-09</v>
       </c>
       <c r="H8" t="n">
-        <v>406.2764483642799</v>
+        <v>417.5337654507782</v>
       </c>
     </row>
     <row r="9">
@@ -690,22 +690,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.011944809344767</v>
+        <v>1.040902694353999</v>
       </c>
       <c r="D9" t="n">
-        <v>7.468989740242271e-05</v>
+        <v>3.667093337892406e-05</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1452832132687557</v>
+        <v>0.141847023844341</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2016076779696386</v>
+        <v>0.2123162601561178</v>
       </c>
       <c r="G9" t="n">
-        <v>5.194177390859835e-06</v>
+        <v>1.785370350116336e-06</v>
       </c>
       <c r="H9" t="n">
-        <v>216.3736894620851</v>
+        <v>218.6127122764802</v>
       </c>
     </row>
     <row r="10">
@@ -716,22 +716,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.8838747986419199</v>
+        <v>0.8820843170146291</v>
       </c>
       <c r="D10" t="n">
-        <v>1.467892351917969e-07</v>
+        <v>5.891598374688807e-08</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2277830385751557</v>
+        <v>0.2204458739074058</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1615277857150046</v>
+        <v>0.1621752251792971</v>
       </c>
       <c r="G10" t="n">
-        <v>3.197152827086233e-08</v>
+        <v>1.25729643672688e-08</v>
       </c>
       <c r="H10" t="n">
-        <v>366.6323270295403</v>
+        <v>378.2012485349748</v>
       </c>
     </row>
     <row r="11">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.7424957687816094</v>
+        <v>0.7956720937775953</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0002197487985707345</v>
+        <v>5.683334847273366e-05</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1312213027060292</v>
+        <v>0.1357064651099501</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1196761224762407</v>
+        <v>0.1360687909613151</v>
       </c>
       <c r="G11" t="n">
-        <v>8.650947674131592e-05</v>
+        <v>1.696244343863063e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>261.8460891726461</v>
+        <v>268.5524759695921</v>
       </c>
     </row>
     <row r="12">
@@ -772,22 +772,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.6394740306979516</v>
+        <v>0.6395918027838865</v>
       </c>
       <c r="D12" t="n">
-        <v>2.9626007928273e-05</v>
+        <v>1.870997162494833e-05</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1662949694744452</v>
+        <v>0.1628649809629527</v>
       </c>
       <c r="F12" t="n">
-        <v>0.09287271106013406</v>
+        <v>0.09276464040425453</v>
       </c>
       <c r="G12" t="n">
-        <v>2.157733095766682e-05</v>
+        <v>1.353546650326716e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>370.7062831320202</v>
+        <v>385.8185594089745</v>
       </c>
     </row>
     <row r="13">
@@ -798,22 +798,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.6982263842527449</v>
+        <v>0.6550189640419601</v>
       </c>
       <c r="D13" t="n">
-        <v>5.711050243053276e-06</v>
+        <v>1.137959215689982e-05</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1813910709965041</v>
+        <v>0.1677469587750197</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1087805463952017</v>
+        <v>0.0968549804339172</v>
       </c>
       <c r="G13" t="n">
-        <v>3.64862985424592e-06</v>
+        <v>7.986328163836419e-06</v>
       </c>
       <c r="H13" t="n">
-        <v>370.1646986501248</v>
+        <v>387.749635972596</v>
       </c>
     </row>
     <row r="14">
@@ -824,22 +824,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.7510190509395183</v>
+        <v>0.7133920006534805</v>
       </c>
       <c r="D14" t="n">
-        <v>3.119637646836532e-07</v>
+        <v>5.73553255619478e-07</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2174616460862592</v>
+        <v>0.2034450646516305</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1237397128591464</v>
+        <v>0.1128520015753139</v>
       </c>
       <c r="G14" t="n">
-        <v>1.847543703451264e-07</v>
+        <v>3.694356347411083e-07</v>
       </c>
       <c r="H14" t="n">
-        <v>408.1272136417066</v>
+        <v>427.1384993392149</v>
       </c>
     </row>
     <row r="15">
@@ -850,22 +850,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.8990986572600528</v>
+        <v>0.8551064231210493</v>
       </c>
       <c r="D15" t="n">
-        <v>1.237774966676107e-09</v>
+        <v>2.597244112154854e-09</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2602487506186569</v>
+        <v>0.2443771837241296</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1683229978202549</v>
+        <v>0.1545247214853096</v>
       </c>
       <c r="G15" t="n">
-        <v>4.362463305890142e-10</v>
+        <v>1.067830015050013e-09</v>
       </c>
       <c r="H15" t="n">
-        <v>407.6011693636491</v>
+        <v>427.5409660118136</v>
       </c>
     </row>
     <row r="16">
@@ -876,22 +876,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.9777280314121647</v>
+        <v>0.9258900409898132</v>
       </c>
       <c r="D16" t="n">
-        <v>1.598616391018176e-10</v>
+        <v>3.810343581717414e-10</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2691158013493295</v>
+        <v>0.2520843437406582</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1931170930013961</v>
+        <v>0.1764646737910401</v>
       </c>
       <c r="G16" t="n">
-        <v>3.436006814204425e-11</v>
+        <v>1.050425171846042e-10</v>
       </c>
       <c r="H16" t="n">
-        <v>389.0712280336702</v>
+        <v>408.8285732970186</v>
       </c>
     </row>
     <row r="17">
@@ -902,22 +902,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.7809366981914027</v>
+        <v>0.8097095924393031</v>
       </c>
       <c r="D17" t="n">
-        <v>5.982380994341552e-05</v>
+        <v>2.416246692614279e-05</v>
       </c>
       <c r="E17" t="n">
-        <v>0.12919093981107</v>
+        <v>0.1298990064109205</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1324627751389509</v>
+        <v>0.1408019222931107</v>
       </c>
       <c r="G17" t="n">
-        <v>2.454669697188584e-05</v>
+        <v>8.409836869001853e-06</v>
       </c>
       <c r="H17" t="n">
-        <v>246.6110624264989</v>
+        <v>254.1257926503369</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.8140936250788168</v>
+        <v>0.772473290270011</v>
       </c>
       <c r="D18" t="n">
-        <v>4.26627525207491e-08</v>
+        <v>8.507186728427775e-08</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2316447138928788</v>
+        <v>0.2167235392803261</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1423149753424607</v>
+        <v>0.1297916903212744</v>
       </c>
       <c r="G18" t="n">
-        <v>2.051884108462584e-08</v>
+        <v>4.603846421528151e-08</v>
       </c>
       <c r="H18" t="n">
-        <v>401.5376924413696</v>
+        <v>420.6770254950184</v>
       </c>
     </row>
     <row r="19">
@@ -954,22 +954,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.7283531408058475</v>
+        <v>0.7368743302496408</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0003444237421026088</v>
+        <v>0.0002487561742401795</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1074484633244524</v>
+        <v>0.1037106972731591</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1172459333771551</v>
+        <v>0.1195012184620913</v>
       </c>
       <c r="G19" t="n">
-        <v>0.00017187159238253</v>
+        <v>0.0001178584913290218</v>
       </c>
       <c r="H19" t="n">
-        <v>223.0219637328502</v>
+        <v>226.5992478244172</v>
       </c>
     </row>
     <row r="20">
@@ -980,22 +980,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.8170842672401389</v>
+        <v>0.7949974989766857</v>
       </c>
       <c r="D20" t="n">
-        <v>1.593813594887461e-07</v>
+        <v>1.724312403885524e-07</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2112668971738789</v>
+        <v>0.2004534006011502</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1432124884502758</v>
+        <v>0.1364234652259495</v>
       </c>
       <c r="G20" t="n">
-        <v>6.941199867436097e-08</v>
+        <v>7.945229523273795e-08</v>
       </c>
       <c r="H20" t="n">
-        <v>368.1352852146273</v>
+        <v>381.7781111979402</v>
       </c>
     </row>
     <row r="21">
@@ -1006,22 +1006,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.7677722829480683</v>
+        <v>0.7259032481667052</v>
       </c>
       <c r="D21" t="n">
-        <v>4.674029609164697e-05</v>
+        <v>6.652399459091099e-05</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1342175052524152</v>
+        <v>0.124307046457013</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1286040029857657</v>
+        <v>0.1163803273705622</v>
       </c>
       <c r="G21" t="n">
-        <v>2.052829134766042e-05</v>
+        <v>3.377907417990181e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>259.1168767143247</v>
+        <v>269.8632502351388</v>
       </c>
     </row>
     <row r="22">
@@ -1300,22 +1300,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.4627548932980098</v>
+        <v>0.5083572771393984</v>
       </c>
       <c r="D32" t="n">
-        <v>0.002437876988736295</v>
+        <v>0.0007137913221144656</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1233239901178302</v>
+        <v>0.1320320468944771</v>
       </c>
       <c r="F32" t="n">
-        <v>0.04477917227012883</v>
+        <v>0.05233205510559522</v>
       </c>
       <c r="G32" t="n">
-        <v>0.002510033175037114</v>
+        <v>0.0007440040009743274</v>
       </c>
       <c r="H32" t="n">
-        <v>379.6177634950863</v>
+        <v>393.3760929090214</v>
       </c>
     </row>
     <row r="33">
@@ -1326,22 +1326,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.4464187772121062</v>
+        <v>0.4927155696561988</v>
       </c>
       <c r="D33" t="n">
-        <v>0.003376564271592288</v>
+        <v>0.001008942341499648</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1201655608249223</v>
+        <v>0.1292542876618552</v>
       </c>
       <c r="F33" t="n">
-        <v>0.04180323080168286</v>
+        <v>0.04931755699940475</v>
       </c>
       <c r="G33" t="n">
-        <v>0.00347472670193816</v>
+        <v>0.001051148311239631</v>
       </c>
       <c r="H33" t="n">
-        <v>383.0660590445291</v>
+        <v>396.9555417720534</v>
       </c>
     </row>
     <row r="34">
@@ -1352,22 +1352,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.6728884652612603</v>
+        <v>0.716316376920346</v>
       </c>
       <c r="D34" t="n">
-        <v>4.521198517148562e-06</v>
+        <v>7.152184317716412e-07</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1977893877933752</v>
+        <v>0.2047062239528919</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09018031254210498</v>
+        <v>0.09880974063464242</v>
       </c>
       <c r="G34" t="n">
-        <v>4.385422053874317e-06</v>
+        <v>6.918418628448991e-07</v>
       </c>
       <c r="H34" t="n">
-        <v>414.2250635690244</v>
+        <v>428.3485260026711</v>
       </c>
     </row>
     <row r="35">
@@ -1378,22 +1378,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.5640987015302981</v>
+        <v>0.611576957700939</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0001026134134522077</v>
+        <v>1.907130374921868e-05</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1734229355185767</v>
+        <v>0.1829135554335216</v>
       </c>
       <c r="F35" t="n">
-        <v>0.065123072223863</v>
+        <v>0.0740086792683191</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0001033192303243974</v>
+        <v>1.928444309530281e-05</v>
       </c>
       <c r="H35" t="n">
-        <v>431.4696251651432</v>
+        <v>446.4791859281477</v>
       </c>
     </row>
     <row r="36">
@@ -1404,22 +1404,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.6517589681486531</v>
+        <v>0.6955520759266478</v>
       </c>
       <c r="D36" t="n">
-        <v>9.178254715262648e-06</v>
+        <v>1.532685843997432e-06</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1910750228477819</v>
+        <v>0.1982746998563582</v>
       </c>
       <c r="F36" t="n">
-        <v>0.08507998389956964</v>
+        <v>0.09369319574118301</v>
       </c>
       <c r="G36" t="n">
-        <v>9.010011831349357e-06</v>
+        <v>1.504078923273111e-06</v>
       </c>
       <c r="H36" t="n">
-        <v>413.2719188134914</v>
+        <v>427.411076172246</v>
       </c>
     </row>
     <row r="37">
@@ -1430,22 +1430,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.7114670850107992</v>
+        <v>0.7083825562132553</v>
       </c>
       <c r="D37" t="n">
-        <v>7.650659329481057e-05</v>
+        <v>5.979419684209932e-05</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1184372089692583</v>
+        <v>0.1150356149901079</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09975622195742703</v>
+        <v>0.0968438546760174</v>
       </c>
       <c r="G37" t="n">
-        <v>6.89411838781341e-05</v>
+        <v>5.611663058226372e-05</v>
       </c>
       <c r="H37" t="n">
-        <v>248.5707247949622</v>
+        <v>257.7387544658316</v>
       </c>
     </row>
     <row r="38">
@@ -1456,22 +1456,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.4339897347650756</v>
+        <v>0.4838301064616877</v>
       </c>
       <c r="D38" t="n">
-        <v>0.003123109401021006</v>
+        <v>0.0008203319520642982</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1309033119434767</v>
+        <v>0.142106076804786</v>
       </c>
       <c r="F38" t="n">
-        <v>0.03959878439043792</v>
+        <v>0.04763881752632625</v>
       </c>
       <c r="G38" t="n">
-        <v>0.003193579563597883</v>
+        <v>0.0008474803149964103</v>
       </c>
       <c r="H38" t="n">
-        <v>424.2890843273675</v>
+        <v>439.4195897974019</v>
       </c>
     </row>
     <row r="39">
@@ -1482,22 +1482,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.8010680514718761</v>
+        <v>0.827831352023366</v>
       </c>
       <c r="D39" t="n">
-        <v>2.783478562764736e-05</v>
+        <v>1.243518952262029e-05</v>
       </c>
       <c r="E39" t="n">
-        <v>0.1159113708221225</v>
+        <v>0.1138678164896961</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1231748543497656</v>
+        <v>0.1277339184244025</v>
       </c>
       <c r="G39" t="n">
-        <v>2.088853176054394e-05</v>
+        <v>9.147444718722218e-06</v>
       </c>
       <c r="H39" t="n">
-        <v>219.031490770626</v>
+        <v>221.7442198941725</v>
       </c>
     </row>
     <row r="40">
@@ -1508,22 +1508,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.8518466872245595</v>
+        <v>0.8654257245903555</v>
       </c>
       <c r="D40" t="n">
-        <v>2.473544358722168e-08</v>
+        <v>8.932710042036814e-09</v>
       </c>
       <c r="E40" t="n">
-        <v>0.2183644073874967</v>
+        <v>0.2150614311367081</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1370771551861437</v>
+        <v>0.1379620107642963</v>
       </c>
       <c r="G40" t="n">
-        <v>1.988598175852988e-08</v>
+        <v>7.320197553889529e-09</v>
       </c>
       <c r="H40" t="n">
-        <v>365.7106933377487</v>
+        <v>377.1496716817746</v>
       </c>
     </row>
     <row r="41">
@@ -1534,2121 +1534,1856 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.5606102758096756</v>
+        <v>0.6213094123586435</v>
       </c>
       <c r="D41" t="n">
-        <v>0.001339862303383556</v>
+        <v>0.0003090022880547576</v>
       </c>
       <c r="E41" t="n">
-        <v>0.1008613834283095</v>
+        <v>0.1079139242662075</v>
       </c>
       <c r="F41" t="n">
-        <v>0.06437179949325295</v>
+        <v>0.07620200372859647</v>
       </c>
       <c r="G41" t="n">
-        <v>0.001357858084851062</v>
+        <v>0.0003126495314366834</v>
       </c>
       <c r="H41" t="n">
-        <v>266.9943485582344</v>
+        <v>274.0625694936582</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>efficacy</t>
+          <t>insured</t>
         </is>
       </c>
       <c r="B42" s="1" t="inlineStr">
         <is>
-          <t>made_safer ~ efficacy</t>
+          <t>made_safer ~ insured</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.6189034699300363</v>
+        <v>0.9560001640403744</v>
       </c>
       <c r="D42" t="n">
-        <v>3.873936262541822e-05</v>
+        <v>2.616453683850117e-10</v>
       </c>
       <c r="E42" t="n">
-        <v>0.1612980875049876</v>
+        <v>0.2312441278198273</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08311212786428382</v>
+        <v>0.1334828508356684</v>
       </c>
       <c r="G42" t="n">
-        <v>3.53306419502734e-05</v>
+        <v>2.789225431666857e-10</v>
       </c>
       <c r="H42" t="n">
-        <v>371.6439644335564</v>
+        <v>423.6198497807224</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="1" t="inlineStr">
         <is>
-          <t>documents ~ efficacy</t>
+          <t>documents ~ insured</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.5988421644473542</v>
+        <v>1.252411175043923</v>
       </c>
       <c r="D43" t="n">
-        <v>6.383955235165305e-05</v>
+        <v>4.222291548355248e-16</v>
       </c>
       <c r="E43" t="n">
-        <v>0.1578354450972985</v>
+        <v>0.2722398709302617</v>
       </c>
       <c r="F43" t="n">
-        <v>0.07822606826016971</v>
+        <v>0.2090976347198534</v>
       </c>
       <c r="G43" t="n">
-        <v>5.923504924659392e-05</v>
+        <v>2.240314406342175e-16</v>
       </c>
       <c r="H43" t="n">
-        <v>375.4788613990921</v>
+        <v>383.9309291446077</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n"/>
       <c r="B44" s="1" t="inlineStr">
         <is>
-          <t>insured ~ efficacy</t>
+          <t>learned_routes ~ insured</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1.024123371128009</v>
+        <v>1.303857598129697</v>
       </c>
       <c r="D44" t="n">
-        <v>5.021353581366009e-12</v>
+        <v>3.590973712553127e-18</v>
       </c>
       <c r="E44" t="n">
-        <v>0.2788320565175502</v>
+        <v>0.3285608515031541</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1988482150048224</v>
+        <v>0.2227243756745937</v>
       </c>
       <c r="G44" t="n">
-        <v>1.816940378227169e-12</v>
+        <v>1.091826625629928e-18</v>
       </c>
       <c r="H44" t="n">
-        <v>385.6413168137244</v>
+        <v>439.7060491093511</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n"/>
       <c r="B45" s="1" t="inlineStr">
         <is>
-          <t>learned_routes ~ efficacy</t>
+          <t>supplies ~ insured</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.9236718974690843</v>
+        <v>0.8977239723938305</v>
       </c>
       <c r="D45" t="n">
-        <v>1.939777444726487e-10</v>
+        <v>1.21544802802964e-09</v>
       </c>
       <c r="E45" t="n">
-        <v>0.2651056903344111</v>
+        <v>0.245252714436685</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1679845015864009</v>
+        <v>0.1195919694566872</v>
       </c>
       <c r="G45" t="n">
-        <v>1.054151784282369e-10</v>
+        <v>1.23977647147529e-09</v>
       </c>
       <c r="H45" t="n">
-        <v>404.8263417813376</v>
+        <v>473.2139874737334</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n"/>
       <c r="B46" s="1" t="inlineStr">
         <is>
-          <t>supplies ~ efficacy</t>
+          <t>involved ~ insured</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1.006819062963113</v>
+        <v>0.9454337751435339</v>
       </c>
       <c r="D46" t="n">
-        <v>1.163230501827666e-11</v>
+        <v>8.027015360354954e-08</v>
       </c>
       <c r="E46" t="n">
-        <v>0.2736725987518343</v>
+        <v>0.1373731892892594</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1934743446637988</v>
+        <v>0.1309326710677543</v>
       </c>
       <c r="G46" t="n">
-        <v>4.510851229566493e-12</v>
+        <v>9.061406844961585e-08</v>
       </c>
       <c r="H46" t="n">
-        <v>385.0936946469878</v>
+        <v>267.1177825264842</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n"/>
       <c r="B47" s="1" t="inlineStr">
         <is>
-          <t>involved ~ efficacy</t>
+          <t>made_plan ~ insured</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.8763660318655161</v>
+        <v>0.7276252309465351</v>
       </c>
       <c r="D47" t="n">
-        <v>2.809679578708995e-06</v>
+        <v>8.622537755172311e-07</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1414931657226663</v>
+        <v>0.2035250757725615</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1537970318382657</v>
+        <v>0.08192666071783337</v>
       </c>
       <c r="G47" t="n">
-        <v>1.227293369448253e-06</v>
+        <v>9.665532640986148e-07</v>
       </c>
       <c r="H47" t="n">
-        <v>240.8764696729277</v>
+        <v>483.586403023019</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n"/>
       <c r="B48" s="1" t="inlineStr">
         <is>
-          <t>made_plan ~ efficacy</t>
+          <t>practiced_drills ~ insured</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1.006819062963113</v>
+        <v>0.9993358919894842</v>
       </c>
       <c r="D48" t="n">
-        <v>1.163230501827658e-11</v>
+        <v>3.660403027899102e-08</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2736725987518343</v>
+        <v>0.1328520488277027</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1934743446637989</v>
+        <v>0.1440756906711355</v>
       </c>
       <c r="G48" t="n">
-        <v>4.510851229566493e-12</v>
+        <v>3.655403053832495e-08</v>
       </c>
       <c r="H48" t="n">
-        <v>385.0936946469878</v>
+        <v>246.3187355317932</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n"/>
       <c r="B49" s="1" t="inlineStr">
         <is>
-          <t>practiced_drills ~ efficacy</t>
+          <t>alerts ~ insured</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.8762576937433769</v>
+        <v>1.122672246734963</v>
       </c>
       <c r="D49" t="n">
-        <v>1.016623550270778e-05</v>
+        <v>1.240858832988602e-13</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1251745757532431</v>
+        <v>0.2648549084336789</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1537648554028523</v>
+        <v>0.1752176028724242</v>
       </c>
       <c r="G49" t="n">
-        <v>4.233797588060864e-06</v>
+        <v>9.663979027422123e-14</v>
       </c>
       <c r="H49" t="n">
-        <v>215.9820349192741</v>
+        <v>413.8958332987175</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n"/>
       <c r="B50" s="1" t="inlineStr">
         <is>
-          <t>alerts ~ efficacy</t>
+          <t>family_communication ~ insured</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.7162810890363236</v>
+        <v>1.071412594485229</v>
       </c>
       <c r="D50" t="n">
-        <v>1.795432614939725e-06</v>
+        <v>3.895483751303274e-10</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1881561821949565</v>
+        <v>0.1666407239585758</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1082687882573311</v>
+        <v>0.1621172166284306</v>
       </c>
       <c r="G50" t="n">
-        <v>1.467777509059855e-06</v>
+        <v>3.577664837340431e-10</v>
       </c>
       <c r="H50" t="n">
-        <v>374.0266050148331</v>
+        <v>283.3621247209099</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n"/>
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>age</t>
+        </is>
+      </c>
       <c r="B51" s="1" t="inlineStr">
         <is>
-          <t>family_communication ~ efficacy</t>
+          <t>made_safer ~ age</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.7502209224804547</v>
+        <v>-0.00319020136459087</v>
       </c>
       <c r="D51" t="n">
-        <v>2.511849141254877e-05</v>
+        <v>0.3410928141184942</v>
       </c>
       <c r="E51" t="n">
-        <v>0.1308450745798378</v>
+        <v>-0.0008479145079944867</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1175376174054197</v>
+        <v>0.004071222099239551</v>
       </c>
       <c r="G51" t="n">
-        <v>1.716421169580105e-05</v>
+        <v>0.3402087592470549</v>
       </c>
       <c r="H51" t="n">
-        <v>258.7759140500446</v>
+        <v>462.5270958680931</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>insured</t>
-        </is>
-      </c>
+      <c r="A52" s="1" t="n"/>
       <c r="B52" s="1" t="inlineStr">
         <is>
-          <t>made_safer ~ insured</t>
+          <t>documents ~ age</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.9560001640403744</v>
+        <v>0.003576707935764507</v>
       </c>
       <c r="D52" t="n">
-        <v>2.616453683850117e-10</v>
+        <v>0.2899979259038488</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2312441278198273</v>
+        <v>0.0009224230699397142</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1334828508356684</v>
+        <v>0.005112124423015378</v>
       </c>
       <c r="G52" t="n">
-        <v>2.789225431666857e-10</v>
+        <v>0.2901354921634288</v>
       </c>
       <c r="H52" t="n">
-        <v>423.6198497807224</v>
+        <v>450.1908576137564</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n"/>
       <c r="B53" s="1" t="inlineStr">
         <is>
-          <t>documents ~ insured</t>
+          <t>insured ~ age</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1.252411175043923</v>
+        <v>-0.005952354690098196</v>
       </c>
       <c r="D53" t="n">
-        <v>4.222291548355248e-16</v>
+        <v>0.07050169229375858</v>
       </c>
       <c r="E53" t="n">
-        <v>0.2722398709302617</v>
+        <v>-0.001722370910330984</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2090976347198534</v>
+        <v>0.01403140011793814</v>
       </c>
       <c r="G53" t="n">
-        <v>2.240314406342175e-16</v>
+        <v>0.06919907119520008</v>
       </c>
       <c r="H53" t="n">
-        <v>383.9309291446077</v>
+        <v>499.1239282786179</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n"/>
       <c r="B54" s="1" t="inlineStr">
         <is>
-          <t>learned_routes ~ insured</t>
+          <t>learned_routes ~ age</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1.303857598129697</v>
+        <v>-0.0002794285595404884</v>
       </c>
       <c r="D54" t="n">
-        <v>3.590973712553127e-18</v>
+        <v>0.9305429660618387</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3285608515031541</v>
+        <v>-8.415923497075804e-05</v>
       </c>
       <c r="F54" t="n">
-        <v>0.2227243756745937</v>
+        <v>3.136088316339952e-05</v>
       </c>
       <c r="G54" t="n">
-        <v>1.091826625629928e-18</v>
+        <v>0.9305373987621919</v>
       </c>
       <c r="H54" t="n">
-        <v>439.7060491093511</v>
+        <v>517.5840833247437</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n"/>
       <c r="B55" s="1" t="inlineStr">
         <is>
-          <t>supplies ~ insured</t>
+          <t>supplies ~ age</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.8977239723938305</v>
+        <v>-0.009952941871770647</v>
       </c>
       <c r="D55" t="n">
-        <v>1.21544802802964e-09</v>
+        <v>0.002887672393188781</v>
       </c>
       <c r="E55" t="n">
-        <v>0.245252714436685</v>
+        <v>-0.002893507806374461</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1195919694566872</v>
+        <v>0.03826643714083672</v>
       </c>
       <c r="G55" t="n">
-        <v>1.23977647147529e-09</v>
+        <v>0.002579543022666798</v>
       </c>
       <c r="H55" t="n">
-        <v>473.2139874737334</v>
+        <v>501.0364719334644</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n"/>
       <c r="B56" s="1" t="inlineStr">
         <is>
-          <t>involved ~ insured</t>
+          <t>involved ~ age</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.9454337751435339</v>
+        <v>-0.01907147280083936</v>
       </c>
       <c r="D56" t="n">
-        <v>8.027015360354954e-08</v>
+        <v>8.652947822898091e-05</v>
       </c>
       <c r="E56" t="n">
-        <v>0.1373731892892594</v>
+        <v>-0.002888081885427478</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1309326710677543</v>
+        <v>0.1274702993046577</v>
       </c>
       <c r="G56" t="n">
-        <v>9.061406844961585e-08</v>
+        <v>2.799627798453314e-05</v>
       </c>
       <c r="H56" t="n">
-        <v>267.1177825264842</v>
+        <v>278.1333538243972</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n"/>
       <c r="B57" s="1" t="inlineStr">
         <is>
-          <t>made_plan ~ insured</t>
+          <t>made_plan ~ age</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.7276252309465351</v>
+        <v>-0.006484728193007559</v>
       </c>
       <c r="D57" t="n">
-        <v>8.622537755172311e-07</v>
+        <v>0.04953618600772752</v>
       </c>
       <c r="E57" t="n">
-        <v>0.2035250757725615</v>
+        <v>-0.001895333788892669</v>
       </c>
       <c r="F57" t="n">
-        <v>0.08192666071783337</v>
+        <v>0.01661000115124555</v>
       </c>
       <c r="G57" t="n">
-        <v>9.665532640986148e-07</v>
+        <v>0.04819384649767727</v>
       </c>
       <c r="H57" t="n">
-        <v>483.586403023019</v>
+        <v>503.6768122214867</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n"/>
       <c r="B58" s="1" t="inlineStr">
         <is>
-          <t>practiced_drills ~ insured</t>
+          <t>practiced_drills ~ age</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.9993358919894842</v>
+        <v>-0.0177995183232498</v>
       </c>
       <c r="D58" t="n">
-        <v>3.660403027899102e-08</v>
+        <v>0.0003020593292206753</v>
       </c>
       <c r="E58" t="n">
-        <v>0.1328520488277027</v>
+        <v>-0.00251947495863295</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1440756906711355</v>
+        <v>0.1128897284372807</v>
       </c>
       <c r="G58" t="n">
-        <v>3.655403053832495e-08</v>
+        <v>0.000125258895926314</v>
       </c>
       <c r="H58" t="n">
-        <v>246.3187355317932</v>
+        <v>261.9311009433061</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n"/>
       <c r="B59" s="1" t="inlineStr">
         <is>
-          <t>alerts ~ insured</t>
+          <t>alerts ~ age</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1.122672246734963</v>
+        <v>0.002487760960313248</v>
       </c>
       <c r="D59" t="n">
-        <v>1.240858832988602e-13</v>
+        <v>0.4540152523991647</v>
       </c>
       <c r="E59" t="n">
-        <v>0.2648549084336789</v>
+        <v>0.0006710978496723182</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1752176028724242</v>
+        <v>0.002479701240036574</v>
       </c>
       <c r="G59" t="n">
-        <v>9.663979027422123e-14</v>
+        <v>0.4541880285804863</v>
       </c>
       <c r="H59" t="n">
-        <v>413.8958332987175</v>
+        <v>468.7698656443932</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n"/>
       <c r="B60" s="1" t="inlineStr">
         <is>
-          <t>family_communication ~ insured</t>
+          <t>family_communication ~ age</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1.071412594485229</v>
+        <v>-0.009821351830112112</v>
       </c>
       <c r="D60" t="n">
-        <v>3.895483751303274e-10</v>
+        <v>0.01729027098584893</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1666407239585758</v>
+        <v>-0.001713411648799235</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1621172166284306</v>
+        <v>0.03729875967199384</v>
       </c>
       <c r="G60" t="n">
-        <v>3.577664837340431e-10</v>
+        <v>0.01539050222855958</v>
       </c>
       <c r="H60" t="n">
-        <v>283.3621247209099</v>
+        <v>316.8216470201379</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>age</t>
+          <t>income</t>
         </is>
       </c>
       <c r="B61" s="1" t="inlineStr">
         <is>
-          <t>made_safer ~ age</t>
+          <t>made_safer ~ income</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>-0.00319020136459087</v>
+        <v>-2.22133383821768e-06</v>
       </c>
       <c r="D61" t="n">
-        <v>0.3410928141184942</v>
+        <v>0.1123512553095931</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.0008479145079944867</v>
+        <v>-5.880573880836438e-07</v>
       </c>
       <c r="F61" t="n">
-        <v>0.004071222099239551</v>
+        <v>0.01328446891326963</v>
       </c>
       <c r="G61" t="n">
-        <v>0.3402087592470549</v>
+        <v>0.1043763071034347</v>
       </c>
       <c r="H61" t="n">
-        <v>462.5270958680931</v>
+        <v>460.7993719616683</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n"/>
       <c r="B62" s="1" t="inlineStr">
         <is>
-          <t>documents ~ age</t>
+          <t>documents ~ income</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.003576707935764507</v>
+        <v>3.994635246139646e-07</v>
       </c>
       <c r="D62" t="n">
-        <v>0.2899979259038488</v>
+        <v>0.7585490953161527</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0009224230699397142</v>
+        <v>1.032644342749878e-07</v>
       </c>
       <c r="F62" t="n">
-        <v>0.005112124423015378</v>
+        <v>0.0004352008958920672</v>
       </c>
       <c r="G62" t="n">
-        <v>0.2901354921634288</v>
+        <v>0.7592257321364995</v>
       </c>
       <c r="H62" t="n">
-        <v>450.1908576137564</v>
+        <v>451.215909302768</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n"/>
       <c r="B63" s="1" t="inlineStr">
         <is>
-          <t>insured ~ age</t>
+          <t>insured ~ income</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>-0.005952354690098196</v>
+        <v>7.082746564031642e-07</v>
       </c>
       <c r="D63" t="n">
-        <v>0.07050169229375858</v>
+        <v>0.5611783668997972</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.001722370910330984</v>
+        <v>2.062369253944065e-07</v>
       </c>
       <c r="F63" t="n">
-        <v>0.01403140011793814</v>
+        <v>0.00136689115340996</v>
       </c>
       <c r="G63" t="n">
-        <v>0.06919907119520008</v>
+        <v>0.5623392093609696</v>
       </c>
       <c r="H63" t="n">
-        <v>499.1239282786179</v>
+        <v>502.0901753656607</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n"/>
       <c r="B64" s="1" t="inlineStr">
         <is>
-          <t>learned_routes ~ age</t>
+          <t>learned_routes ~ income</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>-0.0002794285595404884</v>
+        <v>3.317124949565734e-08</v>
       </c>
       <c r="D64" t="n">
-        <v>0.9305429660618387</v>
+        <v>0.9781453762671073</v>
       </c>
       <c r="E64" t="n">
-        <v>-8.415923497075804e-05</v>
+        <v>9.990770770165741e-09</v>
       </c>
       <c r="F64" t="n">
-        <v>3.136088316339952e-05</v>
+        <v>3.002250499677945e-06</v>
       </c>
       <c r="G64" t="n">
-        <v>0.9305373987621919</v>
+        <v>0.9781479116734514</v>
       </c>
       <c r="H64" t="n">
-        <v>517.5840833247437</v>
+        <v>517.5909314468466</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n"/>
       <c r="B65" s="1" t="inlineStr">
         <is>
-          <t>supplies ~ age</t>
+          <t>supplies ~ income</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>-0.009952941871770647</v>
+        <v>-1.590275437911822e-06</v>
       </c>
       <c r="D65" t="n">
-        <v>0.002887672393188781</v>
+        <v>0.2220244788578852</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.002893507806374461</v>
+        <v>-4.6977416762115e-07</v>
       </c>
       <c r="F65" t="n">
-        <v>0.03826643714083672</v>
+        <v>0.006853032497735569</v>
       </c>
       <c r="G65" t="n">
-        <v>0.002579543022666798</v>
+        <v>0.2157935101662002</v>
       </c>
       <c r="H65" t="n">
-        <v>501.0364719334644</v>
+        <v>508.5876439597918</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n"/>
       <c r="B66" s="1" t="inlineStr">
         <is>
-          <t>involved ~ age</t>
+          <t>involved ~ income</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>-0.01907147280083936</v>
+        <v>1.736109235631627e-07</v>
       </c>
       <c r="D66" t="n">
-        <v>8.652947822898091e-05</v>
+        <v>0.9115925354527189</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.002888081885427478</v>
+        <v>2.79543527468798e-08</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1274702993046577</v>
+        <v>8.223239671736906e-05</v>
       </c>
       <c r="G66" t="n">
-        <v>2.799627798453314e-05</v>
+        <v>0.9117627206497178</v>
       </c>
       <c r="H66" t="n">
-        <v>278.1333538243972</v>
+        <v>295.6703129527803</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n"/>
       <c r="B67" s="1" t="inlineStr">
         <is>
-          <t>made_plan ~ age</t>
+          <t>made_plan ~ income</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>-0.006484728193007559</v>
+        <v>-6.229827557747337e-08</v>
       </c>
       <c r="D67" t="n">
-        <v>0.04953618600772752</v>
+        <v>0.9603793345383882</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.001895333788892669</v>
+        <v>-1.836007468872386e-08</v>
       </c>
       <c r="F67" t="n">
-        <v>0.01661000115124555</v>
+        <v>1.058941625203476e-05</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04819384649767727</v>
+        <v>0.9603617692551407</v>
       </c>
       <c r="H67" t="n">
-        <v>503.6768122214867</v>
+        <v>507.5775554885826</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n"/>
       <c r="B68" s="1" t="inlineStr">
         <is>
-          <t>practiced_drills ~ age</t>
+          <t>practiced_drills ~ income</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>-0.0177995183232498</v>
+        <v>-8.901718257456375e-07</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0003020593292206753</v>
+        <v>0.6007658296813567</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.00251947495863295</v>
+        <v>-1.328399507747153e-07</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1128897284372807</v>
+        <v>0.002157417962202918</v>
       </c>
       <c r="G68" t="n">
-        <v>0.000125258895926314</v>
+        <v>0.5963218880020882</v>
       </c>
       <c r="H68" t="n">
-        <v>261.9311009433061</v>
+        <v>276.3623376109614</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n"/>
       <c r="B69" s="1" t="inlineStr">
         <is>
-          <t>alerts ~ age</t>
+          <t>alerts ~ income</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.002487760960313248</v>
+        <v>-2.290807488509312e-07</v>
       </c>
       <c r="D69" t="n">
-        <v>0.4540152523991647</v>
+        <v>0.8615495995971624</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0006710978496723182</v>
+        <v>-6.186947684307692e-08</v>
       </c>
       <c r="F69" t="n">
-        <v>0.002479701240036574</v>
+        <v>0.0001431658959864173</v>
       </c>
       <c r="G69" t="n">
-        <v>0.4541880285804863</v>
+        <v>0.8612902195714678</v>
       </c>
       <c r="H69" t="n">
-        <v>468.7698656443932</v>
+        <v>469.2995136225404</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n"/>
       <c r="B70" s="1" t="inlineStr">
         <is>
-          <t>family_communication ~ age</t>
+          <t>family_communication ~ income</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>-0.009821351830112112</v>
+        <v>1.388562582745435e-07</v>
       </c>
       <c r="D70" t="n">
-        <v>0.01729027098584893</v>
+        <v>0.9269665994516428</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.001713411648799235</v>
+        <v>2.466886462988635e-08</v>
       </c>
       <c r="F70" t="n">
-        <v>0.03729875967199384</v>
+        <v>5.260567983949796e-05</v>
       </c>
       <c r="G70" t="n">
-        <v>0.01539050222855958</v>
+        <v>0.9270744322872275</v>
       </c>
       <c r="H70" t="n">
-        <v>316.8216470201379</v>
+        <v>322.6844762607402</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>income</t>
+          <t>sex</t>
         </is>
       </c>
       <c r="B71" s="1" t="inlineStr">
         <is>
-          <t>made_safer ~ income</t>
+          <t>made_safer ~ sex</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>-2.22133383821768e-06</v>
+        <v>0.09393321854240158</v>
       </c>
       <c r="D71" t="n">
-        <v>0.1123512553095931</v>
+        <v>0.4840723590455372</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.880573880836438e-07</v>
+        <v>0.0249888461831402</v>
       </c>
       <c r="F71" t="n">
-        <v>0.01328446891326963</v>
+        <v>0.002205314380098047</v>
       </c>
       <c r="G71" t="n">
-        <v>0.1043763071034347</v>
+        <v>0.483859560230673</v>
       </c>
       <c r="H71" t="n">
-        <v>460.7993719616683</v>
+        <v>462.9465884902354</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n"/>
       <c r="B72" s="1" t="inlineStr">
         <is>
-          <t>documents ~ income</t>
+          <t>documents ~ sex</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3.994635246139646e-07</v>
+        <v>0.06471400110928276</v>
       </c>
       <c r="D72" t="n">
-        <v>0.7585490953161527</v>
+        <v>0.6333350509421343</v>
       </c>
       <c r="E72" t="n">
-        <v>1.032644342749878e-07</v>
+        <v>0.01672408712470458</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0004352008958920672</v>
+        <v>0.001047929512984779</v>
       </c>
       <c r="G72" t="n">
-        <v>0.7592257321364995</v>
+        <v>0.6332459094370735</v>
       </c>
       <c r="H72" t="n">
-        <v>451.215909302768</v>
+        <v>451.0821654166978</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n"/>
       <c r="B73" s="1" t="inlineStr">
         <is>
-          <t>insured ~ income</t>
+          <t>insured ~ sex</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>7.082746564031642e-07</v>
+        <v>0.08322517644650697</v>
       </c>
       <c r="D73" t="n">
-        <v>0.5611783668997972</v>
+        <v>0.5211157912150191</v>
       </c>
       <c r="E73" t="n">
-        <v>2.062369253944065e-07</v>
+        <v>0.02422968031769276</v>
       </c>
       <c r="F73" t="n">
-        <v>0.00136689115340996</v>
+        <v>0.001731998516990245</v>
       </c>
       <c r="G73" t="n">
-        <v>0.5623392093609696</v>
+        <v>0.5209764262477676</v>
       </c>
       <c r="H73" t="n">
-        <v>502.0901753656607</v>
+        <v>502.0138856660715</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n"/>
       <c r="B74" s="1" t="inlineStr">
         <is>
-          <t>learned_routes ~ income</t>
+          <t>learned_routes ~ sex</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3.317124949565734e-08</v>
+        <v>0.1359509763130802</v>
       </c>
       <c r="D74" t="n">
-        <v>0.9781453762671073</v>
+        <v>0.2892026396918282</v>
       </c>
       <c r="E74" t="n">
-        <v>9.990770770165741e-09</v>
+        <v>0.04085254394837014</v>
       </c>
       <c r="F74" t="n">
-        <v>3.002250499677945e-06</v>
+        <v>0.004608393464447465</v>
       </c>
       <c r="G74" t="n">
-        <v>0.9781479116734514</v>
+        <v>0.2888307403134547</v>
       </c>
       <c r="H74" t="n">
-        <v>517.5909314468466</v>
+        <v>516.4666181285613</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n"/>
       <c r="B75" s="1" t="inlineStr">
         <is>
-          <t>supplies ~ income</t>
+          <t>supplies ~ sex</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>-1.590275437911822e-06</v>
+        <v>0.09562156496658666</v>
       </c>
       <c r="D75" t="n">
-        <v>0.2220244788578852</v>
+        <v>0.4582640238643106</v>
       </c>
       <c r="E75" t="n">
-        <v>-4.6977416762115e-07</v>
+        <v>0.02830562076825587</v>
       </c>
       <c r="F75" t="n">
-        <v>0.006853032497735569</v>
+        <v>0.002285120254961913</v>
       </c>
       <c r="G75" t="n">
-        <v>0.2157935101662002</v>
+        <v>0.4580769788957917</v>
       </c>
       <c r="H75" t="n">
-        <v>508.5876439597918</v>
+        <v>509.5691815276152</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n"/>
       <c r="B76" s="1" t="inlineStr">
         <is>
-          <t>involved ~ income</t>
+          <t>involved ~ sex</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1.736109235631627e-07</v>
+        <v>0.03861003568395501</v>
       </c>
       <c r="D76" t="n">
-        <v>0.9115925354527189</v>
+        <v>0.8126234906384689</v>
       </c>
       <c r="E76" t="n">
-        <v>2.79543527468798e-08</v>
+        <v>0.006215983328479334</v>
       </c>
       <c r="F76" t="n">
-        <v>8.223239671736906e-05</v>
+        <v>0.0003732752376054818</v>
       </c>
       <c r="G76" t="n">
-        <v>0.9117627206497178</v>
+        <v>0.8125884364552917</v>
       </c>
       <c r="H76" t="n">
-        <v>295.6703129527803</v>
+        <v>295.6263822373497</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n"/>
       <c r="B77" s="1" t="inlineStr">
         <is>
-          <t>made_plan ~ income</t>
+          <t>made_plan ~ sex</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>-6.229827557747337e-08</v>
+        <v>0.05309951008672131</v>
       </c>
       <c r="D77" t="n">
-        <v>0.9603793345383882</v>
+        <v>0.6808235336256143</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.836007468872386e-08</v>
+        <v>0.01564365772332095</v>
       </c>
       <c r="F77" t="n">
-        <v>1.058941625203476e-05</v>
+        <v>0.0007057734595621452</v>
       </c>
       <c r="G77" t="n">
-        <v>0.9603617692551407</v>
+        <v>0.6807785888600342</v>
       </c>
       <c r="H77" t="n">
-        <v>507.5775554885826</v>
+        <v>507.4107748331797</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n"/>
       <c r="B78" s="1" t="inlineStr">
         <is>
-          <t>practiced_drills ~ income</t>
+          <t>practiced_drills ~ sex</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>-8.901718257456375e-07</v>
+        <v>-0.01370322793315973</v>
       </c>
       <c r="D78" t="n">
-        <v>0.6007658296813567</v>
+        <v>0.9348662576338869</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.328399507747153e-07</v>
+        <v>-0.002046937420574892</v>
       </c>
       <c r="F78" t="n">
-        <v>0.002157417962202918</v>
+        <v>4.703446973866869e-05</v>
       </c>
       <c r="G78" t="n">
-        <v>0.5963218880020882</v>
+        <v>0.9348661447166895</v>
       </c>
       <c r="H78" t="n">
-        <v>276.3623376109614</v>
+        <v>276.6362379150087</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n"/>
       <c r="B79" s="1" t="inlineStr">
         <is>
-          <t>alerts ~ income</t>
+          <t>alerts ~ sex</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>-2.290807488509312e-07</v>
+        <v>0.2510237869574088</v>
       </c>
       <c r="D79" t="n">
-        <v>0.8615495995971624</v>
+        <v>0.06190079589378146</v>
       </c>
       <c r="E79" t="n">
-        <v>-6.186947684307692e-08</v>
+        <v>0.06727310521767184</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0001431658959864173</v>
+        <v>0.0155388633200728</v>
       </c>
       <c r="G79" t="n">
-        <v>0.8612902195714678</v>
+        <v>0.06111267874980391</v>
       </c>
       <c r="H79" t="n">
-        <v>469.2995136225404</v>
+        <v>465.8231170066064</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n"/>
       <c r="B80" s="1" t="inlineStr">
         <is>
-          <t>family_communication ~ income</t>
+          <t>family_communication ~ sex</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1.388562582745435e-07</v>
+        <v>0.1775147015877455</v>
       </c>
       <c r="D80" t="n">
-        <v>0.9269665994516428</v>
+        <v>0.2605444988612288</v>
       </c>
       <c r="E80" t="n">
-        <v>2.466886462988635e-08</v>
+        <v>0.03141473392346598</v>
       </c>
       <c r="F80" t="n">
-        <v>5.260567983949796e-05</v>
+        <v>0.007831500930788006</v>
       </c>
       <c r="G80" t="n">
-        <v>0.9270744322872275</v>
+        <v>0.2592539238408416</v>
       </c>
       <c r="H80" t="n">
-        <v>322.6844762607402</v>
+        <v>321.4201167249635</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>sex</t>
+          <t>education</t>
         </is>
       </c>
       <c r="B81" s="1" t="inlineStr">
         <is>
-          <t>made_safer ~ sex</t>
+          <t>made_safer ~ education</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.09393321854240158</v>
+        <v>-0.05668034812120227</v>
       </c>
       <c r="D81" t="n">
-        <v>0.4840723590455372</v>
+        <v>0.2219003679465538</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0249888461831402</v>
+        <v>-0.01504491419797638</v>
       </c>
       <c r="F81" t="n">
-        <v>0.002205314380098047</v>
+        <v>0.006693006031045629</v>
       </c>
       <c r="G81" t="n">
-        <v>0.483859560230673</v>
+        <v>0.2211716189649393</v>
       </c>
       <c r="H81" t="n">
-        <v>462.9465884902354</v>
+        <v>461.9399872212131</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n"/>
       <c r="B82" s="1" t="inlineStr">
         <is>
-          <t>documents ~ sex</t>
+          <t>documents ~ education</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.06471400110928276</v>
+        <v>0.02259008822944295</v>
       </c>
       <c r="D82" t="n">
-        <v>0.6333350509421343</v>
+        <v>0.63483244748118</v>
       </c>
       <c r="E82" t="n">
-        <v>0.01672408712470458</v>
+        <v>0.005837854581765183</v>
       </c>
       <c r="F82" t="n">
-        <v>0.001047929512984779</v>
+        <v>0.001069163143639368</v>
       </c>
       <c r="G82" t="n">
-        <v>0.6332459094370735</v>
+        <v>0.6348107920357788</v>
       </c>
       <c r="H82" t="n">
-        <v>451.0821654166978</v>
+        <v>451.0842568869395</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n"/>
       <c r="B83" s="1" t="inlineStr">
         <is>
-          <t>insured ~ sex</t>
+          <t>insured ~ education</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.08322517644650697</v>
+        <v>0.06011791466985877</v>
       </c>
       <c r="D83" t="n">
-        <v>0.5211157912150191</v>
+        <v>0.1813048307130142</v>
       </c>
       <c r="E83" t="n">
-        <v>0.02422968031769276</v>
+        <v>0.01745137892704281</v>
       </c>
       <c r="F83" t="n">
-        <v>0.001731998516990245</v>
+        <v>0.007523170368422314</v>
       </c>
       <c r="G83" t="n">
-        <v>0.5209764262477676</v>
+        <v>0.180629864625602</v>
       </c>
       <c r="H83" t="n">
-        <v>502.0138856660715</v>
+        <v>500.6334113637336</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n"/>
       <c r="B84" s="1" t="inlineStr">
         <is>
-          <t>learned_routes ~ sex</t>
+          <t>learned_routes ~ education</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.1359509763130802</v>
+        <v>-0.008667882057089816</v>
       </c>
       <c r="D84" t="n">
-        <v>0.2892026396918282</v>
+        <v>0.8453509133488224</v>
       </c>
       <c r="E84" t="n">
-        <v>0.04085254394837014</v>
+        <v>-0.002610456423502387</v>
       </c>
       <c r="F84" t="n">
-        <v>0.004608393464447465</v>
+        <v>0.0001575543002803277</v>
       </c>
       <c r="G84" t="n">
-        <v>0.2888307403134547</v>
+        <v>0.8453441607187513</v>
       </c>
       <c r="H84" t="n">
-        <v>516.4666181285613</v>
+        <v>517.5536324028865</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n"/>
       <c r="B85" s="1" t="inlineStr">
         <is>
-          <t>supplies ~ sex</t>
+          <t>supplies ~ education</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.09562156496658666</v>
+        <v>-0.06339619562707538</v>
       </c>
       <c r="D85" t="n">
-        <v>0.4582640238643106</v>
+        <v>0.1542121650054959</v>
       </c>
       <c r="E85" t="n">
-        <v>0.02830562076825587</v>
+        <v>-0.0187099408374145</v>
       </c>
       <c r="F85" t="n">
-        <v>0.002285120254961913</v>
+        <v>0.00835898565115919</v>
       </c>
       <c r="G85" t="n">
-        <v>0.4580769788957917</v>
+        <v>0.153455411053741</v>
       </c>
       <c r="H85" t="n">
-        <v>509.5691815276152</v>
+        <v>508.0822087652498</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n"/>
       <c r="B86" s="1" t="inlineStr">
         <is>
-          <t>involved ~ sex</t>
+          <t>involved ~ education</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.03861003568395501</v>
+        <v>0.03941715021853232</v>
       </c>
       <c r="D86" t="n">
-        <v>0.8126234906384689</v>
+        <v>0.4767555201272689</v>
       </c>
       <c r="E86" t="n">
-        <v>0.006215983328479334</v>
+        <v>0.006336841850812256</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0003732752376054818</v>
+        <v>0.003248106192264784</v>
       </c>
       <c r="G86" t="n">
-        <v>0.8125884364552917</v>
+        <v>0.4763461047532067</v>
       </c>
       <c r="H86" t="n">
-        <v>295.6263822373497</v>
+        <v>295.1753760579002</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n"/>
       <c r="B87" s="1" t="inlineStr">
         <is>
-          <t>made_plan ~ sex</t>
+          <t>made_plan ~ education</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.05309951008672131</v>
+        <v>-0.04504495945038058</v>
       </c>
       <c r="D87" t="n">
-        <v>0.6808235336256143</v>
+        <v>0.3146037631449561</v>
       </c>
       <c r="E87" t="n">
-        <v>0.01564365772332095</v>
+        <v>-0.01324723977186283</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0007057734595621452</v>
+        <v>0.004237608443466723</v>
       </c>
       <c r="G87" t="n">
-        <v>0.6807785888600342</v>
+        <v>0.3141602589131359</v>
       </c>
       <c r="H87" t="n">
-        <v>507.4107748331797</v>
+        <v>506.5669211021498</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n"/>
       <c r="B88" s="1" t="inlineStr">
         <is>
-          <t>practiced_drills ~ sex</t>
+          <t>practiced_drills ~ education</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>-0.01370322793315973</v>
+        <v>0.006560507982555576</v>
       </c>
       <c r="D88" t="n">
-        <v>0.9348662576338869</v>
+        <v>0.9080071744669832</v>
       </c>
       <c r="E88" t="n">
-        <v>-0.002046937420574892</v>
+        <v>0.0009799633209359472</v>
       </c>
       <c r="F88" t="n">
-        <v>4.703446973866869e-05</v>
+        <v>9.026272471432119e-05</v>
       </c>
       <c r="G88" t="n">
-        <v>0.9348661447166895</v>
+        <v>0.9080104365759306</v>
       </c>
       <c r="H88" t="n">
-        <v>276.6362379150087</v>
+        <v>276.6295652976144</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n"/>
       <c r="B89" s="1" t="inlineStr">
         <is>
-          <t>alerts ~ sex</t>
+          <t>alerts ~ education</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.2510237869574088</v>
+        <v>0.01809844603170409</v>
       </c>
       <c r="D89" t="n">
-        <v>0.06190079589378146</v>
+        <v>0.695100487009441</v>
       </c>
       <c r="E89" t="n">
-        <v>0.06727310521767184</v>
+        <v>0.004886649952221744</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0155388633200728</v>
+        <v>0.0006865260520930486</v>
       </c>
       <c r="G89" t="n">
-        <v>0.06111267874980391</v>
+        <v>0.6950773726474267</v>
       </c>
       <c r="H89" t="n">
-        <v>465.8231170066064</v>
+        <v>469.176401223621</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n"/>
       <c r="B90" s="1" t="inlineStr">
         <is>
-          <t>family_communication ~ sex</t>
+          <t>family_communication ~ education</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.1775147015877455</v>
+        <v>0.05513014537484289</v>
       </c>
       <c r="D90" t="n">
-        <v>0.2605444988612288</v>
+        <v>0.3092579068038179</v>
       </c>
       <c r="E90" t="n">
-        <v>0.03141473392346598</v>
+        <v>0.009763539645919065</v>
       </c>
       <c r="F90" t="n">
-        <v>0.007831500930788006</v>
+        <v>0.006334193493140986</v>
       </c>
       <c r="G90" t="n">
-        <v>0.2592539238408416</v>
+        <v>0.3083312611026067</v>
       </c>
       <c r="H90" t="n">
-        <v>321.4201167249635</v>
+        <v>321.6550429141052</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>homeownership</t>
         </is>
       </c>
       <c r="B91" s="1" t="inlineStr">
         <is>
-          <t>made_safer ~ education</t>
+          <t>made_safer ~ homeownership</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>-0.05668034812120227</v>
+        <v>0.153190421015192</v>
       </c>
       <c r="D91" t="n">
-        <v>0.2219003679465538</v>
+        <v>0.2600327836040981</v>
       </c>
       <c r="E91" t="n">
-        <v>-0.01504491419797638</v>
+        <v>0.04068122047457933</v>
       </c>
       <c r="F91" t="n">
-        <v>0.006693006031045629</v>
+        <v>0.005774386470433079</v>
       </c>
       <c r="G91" t="n">
-        <v>0.2211716189649393</v>
+        <v>0.2588977185540647</v>
       </c>
       <c r="H91" t="n">
-        <v>461.9399872212131</v>
+        <v>462.1620987581784</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n"/>
       <c r="B92" s="1" t="inlineStr">
         <is>
-          <t>documents ~ education</t>
+          <t>documents ~ homeownership</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.02259008822944295</v>
+        <v>0.06420734887476776</v>
       </c>
       <c r="D92" t="n">
-        <v>0.63483244748118</v>
+        <v>0.6387664900300341</v>
       </c>
       <c r="E92" t="n">
-        <v>0.005837854581765183</v>
+        <v>0.01659342294496504</v>
       </c>
       <c r="F92" t="n">
-        <v>0.001069163143639368</v>
+        <v>0.001019258337744667</v>
       </c>
       <c r="G92" t="n">
-        <v>0.6348107920357788</v>
+        <v>0.6385101484476025</v>
       </c>
       <c r="H92" t="n">
-        <v>451.0842568869395</v>
+        <v>451.0891541893239</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n"/>
       <c r="B93" s="1" t="inlineStr">
         <is>
-          <t>insured ~ education</t>
+          <t>insured ~ homeownership</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.06011791466985877</v>
+        <v>0.3300786560528942</v>
       </c>
       <c r="D93" t="n">
-        <v>0.1813048307130142</v>
+        <v>0.01328577790234777</v>
       </c>
       <c r="E93" t="n">
-        <v>0.01745137892704281</v>
+        <v>0.09493077915690706</v>
       </c>
       <c r="F93" t="n">
-        <v>0.007523170368422314</v>
+        <v>0.02625651781738451</v>
       </c>
       <c r="G93" t="n">
-        <v>0.180629864625602</v>
+        <v>0.01266204555863741</v>
       </c>
       <c r="H93" t="n">
-        <v>500.6334113637336</v>
+        <v>496.2101200777436</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n"/>
       <c r="B94" s="1" t="inlineStr">
         <is>
-          <t>learned_routes ~ education</t>
+          <t>learned_routes ~ homeownership</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>-0.008667882057089816</v>
+        <v>-0.06802658579174886</v>
       </c>
       <c r="D94" t="n">
-        <v>0.8453509133488224</v>
+        <v>0.5966590689358104</v>
       </c>
       <c r="E94" t="n">
-        <v>-0.002610456423502387</v>
+        <v>-0.02047705328464112</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0001575543002803277</v>
+        <v>0.001143978655477093</v>
       </c>
       <c r="G94" t="n">
-        <v>0.8453441607187513</v>
+        <v>0.5967679048551693</v>
       </c>
       <c r="H94" t="n">
-        <v>517.5536324028865</v>
+        <v>517.3117834457975</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n"/>
       <c r="B95" s="1" t="inlineStr">
         <is>
-          <t>supplies ~ education</t>
+          <t>supplies ~ homeownership</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>-0.06339619562707538</v>
+        <v>0.03685974641773242</v>
       </c>
       <c r="D95" t="n">
-        <v>0.1542121650054959</v>
+        <v>0.7762753006776547</v>
       </c>
       <c r="E95" t="n">
-        <v>-0.0187099408374145</v>
+        <v>0.0109217472153653</v>
       </c>
       <c r="F95" t="n">
-        <v>0.00835898565115919</v>
+        <v>0.0003361370307927636</v>
       </c>
       <c r="G95" t="n">
-        <v>0.153455411053741</v>
+        <v>0.7762075759318676</v>
       </c>
       <c r="H95" t="n">
-        <v>508.0822087652498</v>
+        <v>510.0389645049618</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n"/>
       <c r="B96" s="1" t="inlineStr">
         <is>
-          <t>involved ~ education</t>
+          <t>involved ~ homeownership</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.03941715021853232</v>
+        <v>-0.3897121915196106</v>
       </c>
       <c r="D96" t="n">
-        <v>0.4767555201272689</v>
+        <v>0.01846378507762019</v>
       </c>
       <c r="E96" t="n">
-        <v>0.006336841850812256</v>
+        <v>-0.06158214940156596</v>
       </c>
       <c r="F96" t="n">
-        <v>0.003248106192264784</v>
+        <v>0.03622603922856093</v>
       </c>
       <c r="G96" t="n">
-        <v>0.4763461047532067</v>
+        <v>0.01761251985398591</v>
       </c>
       <c r="H96" t="n">
-        <v>295.1753760579002</v>
+        <v>290.0483072757035</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n"/>
       <c r="B97" s="1" t="inlineStr">
         <is>
-          <t>made_plan ~ education</t>
+          <t>made_plan ~ homeownership</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>-0.04504495945038058</v>
+        <v>-0.06312638844852222</v>
       </c>
       <c r="D97" t="n">
-        <v>0.3146037631449561</v>
+        <v>0.6261869784590658</v>
       </c>
       <c r="E97" t="n">
-        <v>-0.01324723977186283</v>
+        <v>-0.01859504687750335</v>
       </c>
       <c r="F97" t="n">
-        <v>0.004237608443466723</v>
+        <v>0.0009852613864832389</v>
       </c>
       <c r="G97" t="n">
-        <v>0.3141602589131359</v>
+        <v>0.6262902399540669</v>
       </c>
       <c r="H97" t="n">
-        <v>506.5669211021498</v>
+        <v>507.3429003934381</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n"/>
       <c r="B98" s="1" t="inlineStr">
         <is>
-          <t>practiced_drills ~ education</t>
+          <t>practiced_drills ~ homeownership</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.006560507982555576</v>
+        <v>-0.0625298014846417</v>
       </c>
       <c r="D98" t="n">
-        <v>0.9080071744669832</v>
+        <v>0.710083678670864</v>
       </c>
       <c r="E98" t="n">
-        <v>0.0009799633209359472</v>
+        <v>-0.009336155808536707</v>
       </c>
       <c r="F98" t="n">
-        <v>9.026272471432119e-05</v>
+        <v>0.0009667445339731762</v>
       </c>
       <c r="G98" t="n">
-        <v>0.9080104365759306</v>
+        <v>0.710244922375014</v>
       </c>
       <c r="H98" t="n">
-        <v>276.6295652976144</v>
+        <v>276.5048842983967</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n"/>
       <c r="B99" s="1" t="inlineStr">
         <is>
-          <t>alerts ~ education</t>
+          <t>alerts ~ homeownership</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.01809844603170409</v>
+        <v>0.08289382351962866</v>
       </c>
       <c r="D99" t="n">
-        <v>0.695100487009441</v>
+        <v>0.5381510335676283</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004886649952221744</v>
+        <v>0.02237047198098946</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0006865260520930486</v>
+        <v>0.001697712283545861</v>
       </c>
       <c r="G99" t="n">
-        <v>0.6950773726474267</v>
+        <v>0.5377472796971159</v>
       </c>
       <c r="H99" t="n">
-        <v>469.176401223621</v>
+        <v>468.9503139776133</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n"/>
       <c r="B100" s="1" t="inlineStr">
         <is>
-          <t>family_communication ~ education</t>
+          <t>family_communication ~ homeownership</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.05513014537484289</v>
+        <v>-0.031037499628679</v>
       </c>
       <c r="D100" t="n">
-        <v>0.3092579068038179</v>
+        <v>0.843614360408704</v>
       </c>
       <c r="E100" t="n">
-        <v>0.009763539645919065</v>
+        <v>-0.005513535964538754</v>
       </c>
       <c r="F100" t="n">
-        <v>0.006334193493140986</v>
+        <v>0.0002383568325730082</v>
       </c>
       <c r="G100" t="n">
-        <v>0.3083312611026067</v>
+        <v>0.8436659578015178</v>
       </c>
       <c r="H100" t="n">
-        <v>321.6550429141052</v>
+        <v>322.6539629222909</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>homeownership</t>
+          <t>rentmortgage</t>
         </is>
       </c>
       <c r="B101" s="1" t="inlineStr">
         <is>
-          <t>made_safer ~ homeownership</t>
+          <t>made_safer ~ rentmortgage</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.153190421015192</v>
+        <v>7.235104790285505e-05</v>
       </c>
       <c r="D101" t="n">
-        <v>0.2600327836040981</v>
+        <v>0.3738011660606703</v>
       </c>
       <c r="E101" t="n">
-        <v>0.04068122047457933</v>
+        <v>1.92345610389018e-05</v>
       </c>
       <c r="F101" t="n">
-        <v>0.005774386470433079</v>
+        <v>0.003502590553675531</v>
       </c>
       <c r="G101" t="n">
-        <v>0.2588977185540647</v>
+        <v>0.3740860196629356</v>
       </c>
       <c r="H101" t="n">
-        <v>462.1620987581784</v>
+        <v>462.6466937234869</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n"/>
       <c r="B102" s="1" t="inlineStr">
         <is>
-          <t>documents ~ homeownership</t>
+          <t>documents ~ rentmortgage</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.06420734887476776</v>
+        <v>3.585267519507887e-05</v>
       </c>
       <c r="D102" t="n">
-        <v>0.6387664900300341</v>
+        <v>0.664149827063657</v>
       </c>
       <c r="E102" t="n">
-        <v>0.01659342294496504</v>
+        <v>9.266262140260651e-06</v>
       </c>
       <c r="F102" t="n">
-        <v>0.001019258337744667</v>
+        <v>0.0008623667384825405</v>
       </c>
       <c r="G102" t="n">
-        <v>0.6385101484476025</v>
+        <v>0.6643591948343128</v>
       </c>
       <c r="H102" t="n">
-        <v>451.0891541893239</v>
+        <v>451.1215787032076</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n"/>
       <c r="B103" s="1" t="inlineStr">
         <is>
-          <t>insured ~ homeownership</t>
+          <t>insured ~ rentmortgage</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.3300786560528942</v>
+        <v>0.0001126749522382951</v>
       </c>
       <c r="D103" t="n">
-        <v>0.01328577790234777</v>
+        <v>0.156844795970409</v>
       </c>
       <c r="E103" t="n">
-        <v>0.09493077915690706</v>
+        <v>3.268868773194204e-05</v>
       </c>
       <c r="F103" t="n">
-        <v>0.02625651781738451</v>
+        <v>0.008452628458784452</v>
       </c>
       <c r="G103" t="n">
-        <v>0.01266204555863741</v>
+        <v>0.1570371584852789</v>
       </c>
       <c r="H103" t="n">
-        <v>496.2101200777436</v>
+        <v>500.423318025153</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n"/>
       <c r="B104" s="1" t="inlineStr">
         <is>
-          <t>learned_routes ~ homeownership</t>
+          <t>learned_routes ~ rentmortgage</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>-0.06802658579174886</v>
+        <v>8.236419540397735e-05</v>
       </c>
       <c r="D104" t="n">
-        <v>0.5966590689358104</v>
+        <v>0.2928471654972448</v>
       </c>
       <c r="E104" t="n">
-        <v>-0.02047705328464112</v>
+        <v>2.474978168464448e-05</v>
       </c>
       <c r="F104" t="n">
-        <v>0.001143978655477093</v>
+        <v>0.004534471669649156</v>
       </c>
       <c r="G104" t="n">
-        <v>0.5967679048551693</v>
+        <v>0.2931299686478827</v>
       </c>
       <c r="H104" t="n">
-        <v>517.3117834457975</v>
+        <v>516.4864918838892</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n"/>
       <c r="B105" s="1" t="inlineStr">
         <is>
-          <t>supplies ~ homeownership</t>
+          <t>supplies ~ rentmortgage</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0.03685974641773242</v>
+        <v>0.0001324544780135793</v>
       </c>
       <c r="D105" t="n">
-        <v>0.7762753006776547</v>
+        <v>0.09208697497574926</v>
       </c>
       <c r="E105" t="n">
-        <v>0.0109217472153653</v>
+        <v>3.901890663486543e-05</v>
       </c>
       <c r="F105" t="n">
-        <v>0.0003361370307927636</v>
+        <v>0.0116431532259355</v>
       </c>
       <c r="G105" t="n">
-        <v>0.7762075759318676</v>
+        <v>0.09207338592508899</v>
       </c>
       <c r="H105" t="n">
-        <v>510.0389645049618</v>
+        <v>507.2820266118688</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n"/>
       <c r="B106" s="1" t="inlineStr">
         <is>
-          <t>involved ~ homeownership</t>
+          <t>involved ~ rentmortgage</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>-0.3897121915196106</v>
+        <v>0.0001149234017784265</v>
       </c>
       <c r="D106" t="n">
-        <v>0.01846378507762019</v>
+        <v>0.251024820440049</v>
       </c>
       <c r="E106" t="n">
-        <v>-0.06158214940156596</v>
+        <v>1.842149336954011e-05</v>
       </c>
       <c r="F106" t="n">
-        <v>0.03622603922856093</v>
+        <v>0.008790346918381587</v>
       </c>
       <c r="G106" t="n">
-        <v>0.01761251985398591</v>
+        <v>0.2515925608346384</v>
       </c>
       <c r="H106" t="n">
-        <v>290.0483072757035</v>
+        <v>294.3681542339515</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n"/>
       <c r="B107" s="1" t="inlineStr">
         <is>
-          <t>made_plan ~ homeownership</t>
+          <t>made_plan ~ rentmortgage</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>-0.06312638844852222</v>
+        <v>0.000130662272432242</v>
       </c>
       <c r="D107" t="n">
-        <v>0.6261869784590658</v>
+        <v>0.09567107422963751</v>
       </c>
       <c r="E107" t="n">
-        <v>-0.01859504687750335</v>
+        <v>3.828585092968111e-05</v>
       </c>
       <c r="F107" t="n">
-        <v>0.0009852613864832389</v>
+        <v>0.01133375105776145</v>
       </c>
       <c r="G107" t="n">
-        <v>0.6262902399540669</v>
+        <v>0.09553589856577671</v>
       </c>
       <c r="H107" t="n">
-        <v>507.3429003934381</v>
+        <v>504.8014968787207</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n"/>
       <c r="B108" s="1" t="inlineStr">
         <is>
-          <t>practiced_drills ~ homeownership</t>
+          <t>practiced_drills ~ rentmortgage</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>-0.0625298014846417</v>
+        <v>0.0002893225263118142</v>
       </c>
       <c r="D108" t="n">
-        <v>0.710083678670864</v>
+        <v>0.005026302394241095</v>
       </c>
       <c r="E108" t="n">
-        <v>-0.009336155808536707</v>
+        <v>4.198208021716175e-05</v>
       </c>
       <c r="F108" t="n">
-        <v>0.0009667445339731762</v>
+        <v>0.05321562023144897</v>
       </c>
       <c r="G108" t="n">
-        <v>0.710244922375014</v>
+        <v>0.004616625945917541</v>
       </c>
       <c r="H108" t="n">
-        <v>276.5048842983967</v>
+        <v>268.6191032264575</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n"/>
       <c r="B109" s="1" t="inlineStr">
         <is>
-          <t>alerts ~ homeownership</t>
+          <t>alerts ~ rentmortgage</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.08289382351962866</v>
+        <v>5.7283842023521e-05</v>
       </c>
       <c r="D109" t="n">
-        <v>0.5381510335676283</v>
+        <v>0.4834180432650487</v>
       </c>
       <c r="E109" t="n">
-        <v>0.02237047198098946</v>
+        <v>1.545486723862484e-05</v>
       </c>
       <c r="F109" t="n">
-        <v>0.001697712283545861</v>
+        <v>0.002198527811771433</v>
       </c>
       <c r="G109" t="n">
-        <v>0.5377472796971159</v>
+        <v>0.4837785119530197</v>
       </c>
       <c r="H109" t="n">
-        <v>468.9503139776133</v>
+        <v>468.8397112531067</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n"/>
       <c r="B110" s="1" t="inlineStr">
         <is>
-          <t>family_communication ~ homeownership</t>
+          <t>family_communication ~ rentmortgage</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>-0.031037499628679</v>
+        <v>0.0002243352476073814</v>
       </c>
       <c r="D110" t="n">
-        <v>0.843614360408704</v>
+        <v>0.01886503183530761</v>
       </c>
       <c r="E110" t="n">
-        <v>-0.005513535964538754</v>
+        <v>3.916769104608085e-05</v>
       </c>
       <c r="F110" t="n">
-        <v>0.0002383568325730082</v>
+        <v>0.03268776729031355</v>
       </c>
       <c r="G110" t="n">
-        <v>0.8436659578015178</v>
+        <v>0.01844510278715409</v>
       </c>
       <c r="H110" t="n">
-        <v>322.6539629222909</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="inlineStr">
-        <is>
-          <t>rentmortgage</t>
-        </is>
-      </c>
-      <c r="B111" s="1" t="inlineStr">
-        <is>
-          <t>made_safer ~ rentmortgage</t>
-        </is>
-      </c>
-      <c r="C111" t="n">
-        <v>7.235104790285505e-05</v>
-      </c>
-      <c r="D111" t="n">
-        <v>0.3738011660606703</v>
-      </c>
-      <c r="E111" t="n">
-        <v>1.92345610389018e-05</v>
-      </c>
-      <c r="F111" t="n">
-        <v>0.003502590553675531</v>
-      </c>
-      <c r="G111" t="n">
-        <v>0.3740860196629356</v>
-      </c>
-      <c r="H111" t="n">
-        <v>462.6466937234869</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n"/>
-      <c r="B112" s="1" t="inlineStr">
-        <is>
-          <t>documents ~ rentmortgage</t>
-        </is>
-      </c>
-      <c r="C112" t="n">
-        <v>3.585267519507887e-05</v>
-      </c>
-      <c r="D112" t="n">
-        <v>0.664149827063657</v>
-      </c>
-      <c r="E112" t="n">
-        <v>9.266262140260651e-06</v>
-      </c>
-      <c r="F112" t="n">
-        <v>0.0008623667384825405</v>
-      </c>
-      <c r="G112" t="n">
-        <v>0.6643591948343128</v>
-      </c>
-      <c r="H112" t="n">
-        <v>451.1215787032076</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n"/>
-      <c r="B113" s="1" t="inlineStr">
-        <is>
-          <t>insured ~ rentmortgage</t>
-        </is>
-      </c>
-      <c r="C113" t="n">
-        <v>0.0001126749522382951</v>
-      </c>
-      <c r="D113" t="n">
-        <v>0.156844795970409</v>
-      </c>
-      <c r="E113" t="n">
-        <v>3.268868773194204e-05</v>
-      </c>
-      <c r="F113" t="n">
-        <v>0.008452628458784452</v>
-      </c>
-      <c r="G113" t="n">
-        <v>0.1570371584852789</v>
-      </c>
-      <c r="H113" t="n">
-        <v>500.423318025153</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n"/>
-      <c r="B114" s="1" t="inlineStr">
-        <is>
-          <t>learned_routes ~ rentmortgage</t>
-        </is>
-      </c>
-      <c r="C114" t="n">
-        <v>8.236419540397735e-05</v>
-      </c>
-      <c r="D114" t="n">
-        <v>0.2928471654972448</v>
-      </c>
-      <c r="E114" t="n">
-        <v>2.474978168464448e-05</v>
-      </c>
-      <c r="F114" t="n">
-        <v>0.004534471669649156</v>
-      </c>
-      <c r="G114" t="n">
-        <v>0.2931299686478827</v>
-      </c>
-      <c r="H114" t="n">
-        <v>516.4864918838892</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n"/>
-      <c r="B115" s="1" t="inlineStr">
-        <is>
-          <t>supplies ~ rentmortgage</t>
-        </is>
-      </c>
-      <c r="C115" t="n">
-        <v>0.0001324544780135793</v>
-      </c>
-      <c r="D115" t="n">
-        <v>0.09208697497574926</v>
-      </c>
-      <c r="E115" t="n">
-        <v>3.901890663486543e-05</v>
-      </c>
-      <c r="F115" t="n">
-        <v>0.0116431532259355</v>
-      </c>
-      <c r="G115" t="n">
-        <v>0.09207338592508899</v>
-      </c>
-      <c r="H115" t="n">
-        <v>507.2820266118688</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n"/>
-      <c r="B116" s="1" t="inlineStr">
-        <is>
-          <t>involved ~ rentmortgage</t>
-        </is>
-      </c>
-      <c r="C116" t="n">
-        <v>0.0001149234017784265</v>
-      </c>
-      <c r="D116" t="n">
-        <v>0.251024820440049</v>
-      </c>
-      <c r="E116" t="n">
-        <v>1.842149336954011e-05</v>
-      </c>
-      <c r="F116" t="n">
-        <v>0.008790346918381587</v>
-      </c>
-      <c r="G116" t="n">
-        <v>0.2515925608346384</v>
-      </c>
-      <c r="H116" t="n">
-        <v>294.3681542339515</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n"/>
-      <c r="B117" s="1" t="inlineStr">
-        <is>
-          <t>made_plan ~ rentmortgage</t>
-        </is>
-      </c>
-      <c r="C117" t="n">
-        <v>0.000130662272432242</v>
-      </c>
-      <c r="D117" t="n">
-        <v>0.09567107422963751</v>
-      </c>
-      <c r="E117" t="n">
-        <v>3.828585092968111e-05</v>
-      </c>
-      <c r="F117" t="n">
-        <v>0.01133375105776145</v>
-      </c>
-      <c r="G117" t="n">
-        <v>0.09553589856577671</v>
-      </c>
-      <c r="H117" t="n">
-        <v>504.8014968787207</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n"/>
-      <c r="B118" s="1" t="inlineStr">
-        <is>
-          <t>practiced_drills ~ rentmortgage</t>
-        </is>
-      </c>
-      <c r="C118" t="n">
-        <v>0.0002893225263118142</v>
-      </c>
-      <c r="D118" t="n">
-        <v>0.005026302394241095</v>
-      </c>
-      <c r="E118" t="n">
-        <v>4.198208021716175e-05</v>
-      </c>
-      <c r="F118" t="n">
-        <v>0.05321562023144897</v>
-      </c>
-      <c r="G118" t="n">
-        <v>0.004616625945917541</v>
-      </c>
-      <c r="H118" t="n">
-        <v>268.6191032264575</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n"/>
-      <c r="B119" s="1" t="inlineStr">
-        <is>
-          <t>alerts ~ rentmortgage</t>
-        </is>
-      </c>
-      <c r="C119" t="n">
-        <v>5.7283842023521e-05</v>
-      </c>
-      <c r="D119" t="n">
-        <v>0.4834180432650487</v>
-      </c>
-      <c r="E119" t="n">
-        <v>1.545486723862484e-05</v>
-      </c>
-      <c r="F119" t="n">
-        <v>0.002198527811771433</v>
-      </c>
-      <c r="G119" t="n">
-        <v>0.4837785119530197</v>
-      </c>
-      <c r="H119" t="n">
-        <v>468.8397112531067</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n"/>
-      <c r="B120" s="1" t="inlineStr">
-        <is>
-          <t>family_communication ~ rentmortgage</t>
-        </is>
-      </c>
-      <c r="C120" t="n">
-        <v>0.0002243352476073814</v>
-      </c>
-      <c r="D120" t="n">
-        <v>0.01886503183530761</v>
-      </c>
-      <c r="E120" t="n">
-        <v>3.916769104608085e-05</v>
-      </c>
-      <c r="F120" t="n">
-        <v>0.03268776729031355</v>
-      </c>
-      <c r="G120" t="n">
-        <v>0.01844510278715409</v>
-      </c>
-      <c r="H120" t="n">
         <v>317.1394797260282</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="11">
     <mergeCell ref="A12:A21"/>
     <mergeCell ref="A101:A110"/>
     <mergeCell ref="A91:A100"/>
     <mergeCell ref="A81:A90"/>
-    <mergeCell ref="A52:A60"/>
+    <mergeCell ref="A61:A70"/>
     <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A61:A70"/>
-    <mergeCell ref="A42:A51"/>
-    <mergeCell ref="A111:A120"/>
+    <mergeCell ref="A42:A50"/>
+    <mergeCell ref="A51:A60"/>
     <mergeCell ref="A32:A41"/>
     <mergeCell ref="A71:A80"/>
     <mergeCell ref="A22:A31"/>
